--- a/differences_6_0.5.xlsx
+++ b/differences_6_0.5.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1060000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09700000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.135</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09100000000000008</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03299999999999992</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1689999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05600000000000005</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04300000000000004</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06099999999999994</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07700000000000001</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.057</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06500000000000006</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06300000000000006</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04800000000000004</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08200000000000002</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03399999999999997</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.059</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03599999999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01700000000000002</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03999999999999992</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.01699999999999996</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02299999999999991</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05699999999999994</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1962,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.02699999999999997</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04900000000000004</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006000000000000005</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-0.0149999999999999</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0.126</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.03299999999999997</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.02899999999999997</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.03299999999999997</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02899999999999991</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.09399999999999997</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02699999999999997</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.006999999999999951</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-0.05700000000000005</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.07600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0.05099999999999993</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.04899999999999999</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>-0.06100000000000005</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.05300000000000005</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.03600000000000003</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.07799999999999996</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.04299999999999993</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.03700000000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>-0.06699999999999995</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.04399999999999993</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>-0.05700000000000005</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.06599999999999995</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.03699999999999998</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04300000000000004</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>-0.03399999999999992</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.09599999999999997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.06800000000000006</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.02899999999999991</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.08799999999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.06800000000000006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-0.03800000000000003</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-0.03499999999999992</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -4716,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.04400000000000004</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>-0.02999999999999997</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.06700000000000006</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.09599999999999997</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.08899999999999997</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
